--- a/biology/Médecine/Lymphœdème_congénital_primaire/Lymphœdème_congénital_primaire.xlsx
+++ b/biology/Médecine/Lymphœdème_congénital_primaire/Lymphœdème_congénital_primaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymph%C5%93d%C3%A8me_cong%C3%A9nital_primaire</t>
+          <t>Lymphœdème_congénital_primaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lymphœdème congénital primaire ou maladie de Milroy se caractérise par accumulation de lymphe principalement dans le tissu sous-cutané se manifestant par un lymphœdème des membres inférieurs visible dès la naissance ou peu de temps après. L'importance du lymphœdème varie dans la même famille, il est le plus souvent bilatéral et parfois asymétrique. Ce lymphœdème ne progresse pas durant la vie et parfois s'améliore durant les premières années.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lymph%C5%93d%C3%A8me_cong%C3%A9nital_primaire</t>
+          <t>Lymphœdème_congénital_primaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Glen W Brice, Sahar Mansour, Carolyn Sholto-Douglas-Vernon, Steve Jeffery, Peter Mortimer Milroy Disease In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Glen W Brice, Sahar Mansour, Carolyn Sholto-Douglas-Vernon, Steve Jeffery, Peter Mortimer Milroy Disease In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 
  Portail de la médecine                     </t>
         </is>
       </c>
